--- a/mergesort OMP/Analyse omp.xlsx
+++ b/mergesort OMP/Analyse omp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nordi\Documents\4MA\PDS\Eindtaak\OMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nordi\Documents\4MA\PDS\PDS_ParallelizingSortingAlgos\mergesort OMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BED9348-CEF0-4DCF-B85D-49D752330410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4F3FFF-1952-44A1-AB8B-005867E12F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>speedup</t>
   </si>
@@ -54,15 +54,29 @@
   </si>
   <si>
     <t>efficiency</t>
+  </si>
+  <si>
+    <t>Merging serial</t>
+  </si>
+  <si>
+    <t>Merging parallel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,8 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -371,118 +388,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D2" t="e">
-        <f>B2/C2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" t="e">
-        <f>D2/E2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D3" t="e">
-        <f t="shared" ref="D3:D13" si="0">B3/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <f>B3/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" t="e">
+        <f>D3/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="e">
+        <f>K3/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" t="e">
+        <f>M3/N3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D4:D14" si="0">B4/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J13" si="1">A4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K13" si="2">B4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" t="e">
+        <f t="shared" ref="M4:M13" si="3">K4/L4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mergesort OMP/Analyse omp.xlsx
+++ b/mergesort OMP/Analyse omp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nordi\Documents\4MA\PDS\PDS_ParallelizingSortingAlgos\mergesort OMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4F3FFF-1952-44A1-AB8B-005867E12F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E201C9D1-37E5-4D8C-B453-395468DE9F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>speedup</t>
   </si>
@@ -61,12 +61,21 @@
   <si>
     <t>Merging parallel</t>
   </si>
+  <si>
+    <t>efficiency (%)</t>
+  </si>
+  <si>
+    <t>IDEALE geval</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +90,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,10 +117,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,27 +405,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="21">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -418,7 +439,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -437,6 +458,9 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
@@ -455,223 +479,529 @@
       <c r="O2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D3" t="e">
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="B3">
+        <v>114.798</v>
+      </c>
+      <c r="C3">
+        <v>139.37700000000001</v>
+      </c>
+      <c r="D3">
         <f>B3/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" t="e">
+        <v>0.82365096106244207</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3">
         <f>D3/E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3">
-        <f>A3</f>
-        <v>0</v>
+        <v>1.2869546266600657E-2</v>
+      </c>
+      <c r="G3">
+        <f>F3*100</f>
+        <v>1.2869546266600658</v>
+      </c>
+      <c r="J3" s="2">
+        <v>50000000</v>
       </c>
       <c r="K3">
         <f>B3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" t="e">
+        <v>114.798</v>
+      </c>
+      <c r="L3">
+        <v>104.69199999999999</v>
+      </c>
+      <c r="M3">
         <f>K3/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" t="e">
+        <v>1.0965307759905247</v>
+      </c>
+      <c r="N3">
+        <f>E3</f>
+        <v>64</v>
+      </c>
+      <c r="O3">
         <f>M3/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D4" t="e">
+        <v>1.7133293374851949E-2</v>
+      </c>
+      <c r="P3">
+        <f>O3*100</f>
+        <v>1.7133293374851948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>100000000</v>
+      </c>
+      <c r="B4">
+        <v>234.54300000000001</v>
+      </c>
+      <c r="C4">
+        <v>283.33300000000003</v>
+      </c>
+      <c r="D4">
         <f t="shared" ref="D4:D14" si="0">B4/C4</f>
-        <v>#DIV/0!</v>
+        <v>0.82779979741152632</v>
+      </c>
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F14" si="1">D4/E4</f>
+        <v>1.2934371834555099E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G14" si="2">F4*100</f>
+        <v>1.2934371834555098</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J13" si="1">A4</f>
-        <v>0</v>
+        <f>A4</f>
+        <v>100000000</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K13" si="2">B4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" t="e">
-        <f t="shared" ref="M4:M13" si="3">K4/L4</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K4:K13" si="3">B4</f>
+        <v>234.54300000000001</v>
+      </c>
+      <c r="L4">
+        <v>212.46100000000001</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M13" si="4">K4/L4</f>
+        <v>1.1039343691312757</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N13" si="5">E4</f>
+        <v>64</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O13" si="6">M4/N4</f>
+        <v>1.7248974517676183E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P13" si="7">O4*100</f>
+        <v>1.7248974517676183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="D5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J4:J13" si="8">A5</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="O5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="D6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="F6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="O6" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="O7" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="D8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="O8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="D9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E9">
+        <v>64</v>
+      </c>
+      <c r="F9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="O9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="D10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E10">
+        <v>64</v>
+      </c>
+      <c r="F10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="O10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="D11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="F11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="O11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E12">
+        <v>64</v>
+      </c>
+      <c r="F12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="O12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="D13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="F13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="O13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="D14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E14">
+        <v>64</v>
+      </c>
+      <c r="F14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="21">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="21">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
